--- a/data/outputs/management_elsevier/7.xlsx
+++ b/data/outputs/management_elsevier/7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS95"/>
+  <dimension ref="A1:BU95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -947,6 +957,12 @@
           <t>2-s2.0-84941566839</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>963</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1173,6 +1189,12 @@
         <is>
           <t>2-s2.0-84942514180</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>578</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1383,6 +1405,12 @@
           <t>2-s2.0-84942911166</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>833</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1609,6 +1637,12 @@
         <is>
           <t>2-s2.0-84943633966</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>1154</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1825,6 +1859,12 @@
           <t>2-s2.0-84944242791</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>787</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2044,6 +2084,12 @@
           <t>2-s2.0-84944251044</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>751</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2271,6 +2317,12 @@
           <t>2-s2.0-84944739163</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1396</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2492,6 +2544,12 @@
           <t>2-s2.0-84945314877</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>437</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2715,6 +2773,12 @@
           <t>2-s2.0-84945301070</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>687</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2932,6 +2996,12 @@
           <t>2-s2.0-84945124144</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>441</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3148,6 +3218,12 @@
         <is>
           <t>2-s2.0-84945157555</t>
         </is>
+      </c>
+      <c r="BT12" t="n">
+        <v>671</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3358,6 +3434,12 @@
           <t>2-s2.0-84983201177</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>1221</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3583,6 +3665,12 @@
           <t>2-s2.0-84934947493</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>816</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3806,6 +3894,12 @@
           <t>2-s2.0-84934957458</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>2411</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4021,6 +4115,12 @@
           <t>2-s2.0-84947807347</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>941</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4233,6 +4333,12 @@
         <is>
           <t>2-s2.0-84937459113</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>1181</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4443,6 +4549,12 @@
           <t>2-s2.0-84938153545</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>304</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4663,6 +4775,12 @@
         <is>
           <t>2-s2.0-84938084172</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>586</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4875,6 +4993,12 @@
           <t>2-s2.0-84938149654</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>530</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5098,6 +5222,12 @@
           <t>2-s2.0-84939145916</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>4114</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5317,6 +5447,12 @@
           <t>2-s2.0-84939153782</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1315</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5544,6 +5680,12 @@
           <t>2-s2.0-84939553164</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>888</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5761,6 +5903,12 @@
           <t>2-s2.0-84939787212</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>611</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5994,6 +6142,12 @@
           <t>2-s2.0-84940024281</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>981</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6217,6 +6371,12 @@
           <t>2-s2.0-84940107740</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1163</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6437,6 +6597,12 @@
         <is>
           <t>2-s2.0-84940021300</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>612</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -6647,6 +6813,12 @@
           <t>2-s2.0-84941659490</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>549</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6850,6 +7022,12 @@
           <t>2-s2.0-84943816045</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>416</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7065,6 +7243,12 @@
           <t>2-s2.0-84943815799</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>897</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7286,6 +7470,12 @@
           <t>2-s2.0-84943820384</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>923</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7505,6 +7695,12 @@
           <t>2-s2.0-84943813654</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>1335</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7722,6 +7918,12 @@
           <t>2-s2.0-84938935996</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>685</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7939,6 +8141,12 @@
           <t>2-s2.0-84943813795</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1533</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8156,6 +8364,12 @@
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="inlineStr"/>
       <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8383,6 +8597,12 @@
           <t>2-s2.0-84946165022</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>915</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8602,6 +8822,12 @@
           <t>2-s2.0-84928953060</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>1383</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8823,6 +9049,12 @@
           <t>2-s2.0-84928945462</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>971</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9041,6 +9273,12 @@
         <is>
           <t>2-s2.0-84929304931</t>
         </is>
+      </c>
+      <c r="BT39" t="n">
+        <v>1727</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -9251,6 +9489,12 @@
           <t>2-s2.0-84929314720</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>1298</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9460,6 +9704,12 @@
           <t>2-s2.0-84929316857</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>477</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9671,6 +9921,12 @@
           <t>2-s2.0-84929377406</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>556</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9884,6 +10140,12 @@
           <t>2-s2.0-84929407483</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>998</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10103,6 +10365,12 @@
           <t>2-s2.0-84929439881</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>538</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10321,6 +10589,12 @@
         <is>
           <t>2-s2.0-84929598537</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>1302</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -10531,6 +10805,12 @@
           <t>2-s2.0-84929577636</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1251</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10750,6 +11030,12 @@
           <t>2-s2.0-84934882046</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>686</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10971,6 +11257,12 @@
           <t>2-s2.0-84931267911</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>715</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11194,6 +11486,12 @@
           <t>2-s2.0-84931263834</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>780</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11410,6 +11708,12 @@
         <is>
           <t>2-s2.0-84931274279</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>1062</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -11604,6 +11908,12 @@
       <c r="BQ51" t="inlineStr"/>
       <c r="BR51" t="inlineStr"/>
       <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11815,6 +12125,12 @@
           <t>2-s2.0-84938957348</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>1695</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12033,6 +12349,12 @@
         <is>
           <t>2-s2.0-84946184937</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>1490</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -12245,6 +12567,12 @@
           <t>2-s2.0-84946191381</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>2331</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12464,6 +12792,12 @@
           <t>2-s2.0-84945554025</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>2723</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12677,6 +13011,12 @@
           <t>2-s2.0-84946192524</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1100</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12895,6 +13235,12 @@
         <is>
           <t>2-s2.0-84938816006</t>
         </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>2074</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -13105,6 +13451,12 @@
           <t>2-s2.0-84934878898</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>3116</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13315,6 +13667,12 @@
         <is>
           <t>2-s2.0-84938684572</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>1594</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -13521,6 +13879,12 @@
           <t>2-s2.0-84938783822</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>339</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13752,6 +14116,12 @@
           <t>2-s2.0-84934932278</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>484</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13973,6 +14343,12 @@
           <t>2-s2.0-84924574605</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>914</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14195,6 +14571,12 @@
         <is>
           <t>2-s2.0-84924598773</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>1486</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -14405,6 +14787,12 @@
           <t>2-s2.0-84925358862</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>2320</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14626,6 +15014,12 @@
           <t>2-s2.0-84925778145</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>2209</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14842,6 +15236,12 @@
         <is>
           <t>2-s2.0-84926014121</t>
         </is>
+      </c>
+      <c r="BT66" t="n">
+        <v>7926</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67">
@@ -15052,6 +15452,12 @@
           <t>2-s2.0-84926327710</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>828</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15273,6 +15679,12 @@
           <t>2-s2.0-84926386607</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>1399</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15490,6 +15902,12 @@
           <t>2-s2.0-84926610423</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>918</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15702,6 +16120,12 @@
         <is>
           <t>2-s2.0-84928636034</t>
         </is>
+      </c>
+      <c r="BT70" t="n">
+        <v>518</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -15896,6 +16320,12 @@
       <c r="BQ71" t="inlineStr"/>
       <c r="BR71" t="inlineStr"/>
       <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16105,6 +16535,12 @@
           <t>2-s2.0-84923174162</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>719</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16316,6 +16752,12 @@
           <t>2-s2.0-84923227255</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>1307</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16533,6 +16975,12 @@
           <t>2-s2.0-84923224459</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>509</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16748,6 +17196,12 @@
           <t>2-s2.0-84923164054</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>2565</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16963,6 +17417,12 @@
           <t>2-s2.0-84923166001</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>4391</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17195,6 +17655,12 @@
         <is>
           <t>2-s2.0-84923251203</t>
         </is>
+      </c>
+      <c r="BT77" t="n">
+        <v>1096</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -17407,6 +17873,12 @@
           <t>2-s2.0-84923169264</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1488</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17624,6 +18096,12 @@
           <t>2-s2.0-84923169609</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>807</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17843,6 +18321,12 @@
           <t>2-s2.0-84923123167</t>
         </is>
       </c>
+      <c r="BT80" t="n">
+        <v>687</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -18061,6 +18545,12 @@
         <is>
           <t>2-s2.0-84923205825</t>
         </is>
+      </c>
+      <c r="BT81" t="n">
+        <v>573</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -18272,6 +18762,12 @@
         <is>
           <t>2-s2.0-84923344550</t>
         </is>
+      </c>
+      <c r="BT82" t="n">
+        <v>782</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -18466,6 +18962,12 @@
       <c r="BQ83" t="inlineStr"/>
       <c r="BR83" t="inlineStr"/>
       <c r="BS83" t="inlineStr"/>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18677,6 +19179,12 @@
           <t>2-s2.0-84924195799</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>1224</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18906,6 +19414,12 @@
           <t>2-s2.0-84924265330</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>3523</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19123,6 +19637,12 @@
           <t>2-s2.0-84924232596</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>1828</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19350,6 +19870,12 @@
           <t>2-s2.0-84924252769</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>2545</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19579,6 +20105,12 @@
           <t>2-s2.0-84924136846</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>1060</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19796,6 +20328,12 @@
           <t>2-s2.0-84924099840</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>735</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20021,6 +20559,12 @@
           <t>2-s2.0-84924089831</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>2404</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20240,6 +20784,12 @@
           <t>2-s2.0-84924135765</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>2446</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20456,6 +21006,12 @@
         <is>
           <t>2-s2.0-84924181947</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>566</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -20668,6 +21224,12 @@
           <t>2-s2.0-84924199286</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>1893</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20895,6 +21457,12 @@
           <t>2-s2.0-84924153734</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>1284</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21108,6 +21676,12 @@
           <t>2-s2.0-84924151232</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>727</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
